--- a/code/excels/building/building_unit_summoned.xlsx
+++ b/code/excels/building/building_unit_summoned.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="param" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$2:$CC$360</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$A$560</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -5462,7 +5464,7 @@
     <t>字段</t>
   </si>
   <si>
-    <t>DOTAUnits</t>
+    <t>building_unit_summoned</t>
   </si>
   <si>
     <t>Creature</t>
@@ -6481,13 +6483,13 @@
   <sheetPr/>
   <dimension ref="A1:CC560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B542" workbookViewId="0">
-      <selection activeCell="H579" sqref="H579"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="53.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
     <col min="5" max="5" width="19.8333333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="40.6666666666667" style="1" customWidth="1"/>
@@ -54162,13 +54164,15 @@
   <sheetPr/>
   <dimension ref="A1:CC4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BR1" sqref="BR1:BR2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="51" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="51" width="9" style="1"/>
     <col min="52" max="52" width="13.4166666666667" style="1" customWidth="1"/>
     <col min="53" max="16384" width="9" style="1"/>
   </cols>
@@ -55154,4 +55158,23 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="56.9166666666667" style="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/code/excels/building/building_unit_summoned.xlsx
+++ b/code/excels/building/building_unit_summoned.xlsx
@@ -6569,9 +6569,9 @@
   <dimension ref="A1:CC558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A457" sqref="A457"/>
+      <selection pane="bottomLeft" activeCell="A314" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>

--- a/code/excels/building/building_unit_summoned.xlsx
+++ b/code/excels/building/building_unit_summoned.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13639" uniqueCount="1822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13636" uniqueCount="1821">
   <si>
     <t>主键</t>
   </si>
@@ -5420,9 +5420,6 @@
   </si>
   <si>
     <t>dota_ability_reveal_invis</t>
-  </si>
-  <si>
-    <t>npc_wearable_dummy</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -6464,12 +6461,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CB557"/>
+  <dimension ref="A1:CB556"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A538" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AW1" sqref="AW1:AW2"/>
+      <selection pane="bottomLeft" activeCell="A562" sqref="A562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -54963,27 +54960,6 @@
         <v>152</v>
       </c>
     </row>
-    <row r="557" s="1" customFormat="1" spans="1:66">
-      <c r="A557" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B557" s="5">
-        <v>111</v>
-      </c>
-      <c r="C557" s="5">
-        <v>111</v>
-      </c>
-      <c r="D557" s="5">
-        <v>111</v>
-      </c>
-      <c r="E557" s="3"/>
-      <c r="H557" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BN557" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
   </sheetData>
   <sortState ref="A3:CD562">
     <sortCondition ref="A3"/>
@@ -54998,7 +54974,7 @@
   <sheetPr/>
   <dimension ref="A1:CB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
@@ -55013,10 +54989,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:80">
       <c r="A1" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1801</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1802</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -55252,10 +55228,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:80">
       <c r="A2" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1803</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1804</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>78</v>
@@ -55459,7 +55435,7 @@
         <v>147</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>148</v>
@@ -55494,255 +55470,255 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:80">
       <c r="A3" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1807</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="BS3" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>1807</v>
-      </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>1811</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>1813</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>1815</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>1818</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:80">
       <c r="A4" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1821</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>78</v>
@@ -55946,34 +55922,34 @@
         <v>78</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/building/building_unit_summoned.xlsx
+++ b/code/excels/building/building_unit_summoned.xlsx
@@ -6463,10 +6463,10 @@
   <sheetPr/>
   <dimension ref="A1:CB556"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A538" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A562" sqref="A562"/>
+      <selection pane="bottomLeft" activeCell="L528" sqref="L528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>

--- a/code/excels/building/building_unit_summoned.xlsx
+++ b/code/excels/building/building_unit_summoned.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <t>攻击范围</t>
   </si>
   <si>
-    <t>攻击拾取范围</t>
+    <t>攻击警戒范围</t>
   </si>
   <si>
     <t>弹道模型</t>
@@ -6604,10 +6604,10 @@
   <sheetPr/>
   <dimension ref="A1:CB573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A540" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E580" sqref="E580"/>
+      <selection pane="bottomLeft" activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -57290,8 +57290,8 @@
   <sheetPr/>
   <dimension ref="A1:CB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="3"/>
